--- a/bots/crawl_ch/output/bread_coop_2022-12-28.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O399"/>
+  <dimension ref="A1:O398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13586,7 +13586,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17351,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17629,7 +17629,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17698,7 +17698,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17767,7 +17767,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18406,7 +18406,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19104,7 +19104,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19173,7 +19173,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19384,7 +19384,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19522,7 +19522,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
@@ -23062,43 +23062,45 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6135422</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-zwetschgen-rollen-3x60g/p/6135422</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23108,7 +23110,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23118,56 +23120,56 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Roland Sport Banana Cranberry 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23177,7 +23179,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23187,56 +23189,60 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23246,7 +23252,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23256,60 +23262,56 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>7036109</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Quicook Kuchenteig</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
         </is>
       </c>
       <c r="D323" t="n">
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23319,7 +23321,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23329,56 +23331,60 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr"/>
+          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>7036109</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23388,7 +23394,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23398,60 +23404,56 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E325" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23461,7 +23463,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23471,42 +23473,42 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -23515,12 +23517,12 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23530,7 +23532,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23540,42 +23542,46 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E327" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -23584,12 +23590,12 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23599,7 +23605,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23609,43 +23615,39 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -23657,12 +23659,12 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23672,7 +23674,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23682,56 +23684,60 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23741,7 +23747,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23756,55 +23762,55 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23814,7 +23820,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23829,55 +23835,51 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6314192</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Sapori Panettoncino Schokocrème</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettoncino-schokocreme/p/6314192</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23887,7 +23889,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23897,56 +23899,56 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+          <t>Sapori Panettoncino Schokocrème 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6314192</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sapori Panettoncino Schokocrème</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettoncino-schokocreme/p/6314192</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23956,7 +23958,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23966,56 +23968,56 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Sapori Panettoncino Schokocrème 1.95 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E333" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24025,7 +24027,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24035,56 +24037,56 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24094,7 +24096,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24104,56 +24106,60 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N334" t="inlineStr"/>
+          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E335" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24163,7 +24169,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24173,46 +24179,42 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E336" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -24226,7 +24228,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24236,7 +24238,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24246,42 +24248,42 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D337" t="n">
         <v>2</v>
       </c>
       <c r="E337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -24290,12 +24292,12 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24305,7 +24307,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24315,51 +24317,51 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -24384,56 +24386,56 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.75 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24443,7 +24445,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24453,56 +24455,56 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Roland Sport High Protein Choco 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24512,7 +24514,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24522,56 +24524,56 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.60 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E341" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24581,7 +24583,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24591,56 +24593,56 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24650,7 +24652,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24660,56 +24662,60 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E343" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24719,7 +24725,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24729,46 +24735,42 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E344" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -24777,12 +24779,12 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24792,7 +24794,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24802,56 +24804,56 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24861,7 +24863,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24871,56 +24873,56 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24930,7 +24932,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24945,51 +24947,49 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
-        </is>
-      </c>
-      <c r="D347" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24999,7 +24999,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25009,54 +25009,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.50 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>6</v>
+      </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25066,7 +25068,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25076,56 +25078,54 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
-        </is>
-      </c>
-      <c r="D349" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="E349" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25145,54 +25145,56 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>5</v>
+      </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25202,7 +25204,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25212,56 +25214,60 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D351" t="n">
+        <v>7</v>
+      </c>
+      <c r="E351" t="n">
         <v>5</v>
       </c>
-      <c r="E351" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25271,7 +25277,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25281,60 +25287,56 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E352" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25344,7 +25346,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25354,56 +25356,56 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E353" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25413,7 +25415,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25423,56 +25425,56 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E354" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25482,7 +25484,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25492,56 +25494,56 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25551,7 +25553,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25561,42 +25563,42 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E356" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -25605,12 +25607,12 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25620,7 +25622,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25635,51 +25637,51 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25689,7 +25691,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25699,56 +25701,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E358" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25758,7 +25760,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25768,56 +25770,54 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
-        </is>
-      </c>
-      <c r="D359" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="E359" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25837,54 +25837,56 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>2</v>
+      </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25894,7 +25896,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25904,56 +25906,60 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E361" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25963,7 +25969,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25978,7 +25984,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -25988,45 +25994,45 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E362" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26036,7 +26042,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26046,60 +26052,56 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26109,7 +26111,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26119,56 +26121,60 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D364" t="n">
         <v>6</v>
       </c>
       <c r="E364" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26178,7 +26184,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26188,60 +26194,54 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
-        </is>
-      </c>
-      <c r="D365" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26261,54 +26261,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>3</v>
+      </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26318,7 +26324,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26328,60 +26334,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D367" t="n">
         <v>3</v>
       </c>
       <c r="E367" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26391,7 +26393,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26401,56 +26403,60 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D368" t="n">
         <v>3</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26460,7 +26466,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26470,46 +26476,42 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E369" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -26518,12 +26520,12 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26533,7 +26535,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26543,56 +26545,60 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E370" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26602,7 +26608,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26612,60 +26618,60 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E371" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26675,7 +26681,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26685,12 +26691,12 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -26700,45 +26706,43 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
-        </is>
-      </c>
-      <c r="D372" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
       <c r="E372" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26748,7 +26752,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26758,58 +26762,60 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>2</v>
+      </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>3.55/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26819,7 +26825,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26829,60 +26835,60 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>3.55/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26892,7 +26898,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26902,12 +26908,12 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -26917,45 +26923,45 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D375" t="n">
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.09/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26965,7 +26971,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26975,60 +26981,54 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D376" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="E376" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>2.09/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27048,35 +27048,39 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr"/>
+          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
         </is>
       </c>
       <c r="D377" t="inlineStr"/>
@@ -27085,17 +27089,17 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27105,7 +27109,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27115,58 +27119,56 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27176,7 +27178,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27191,30 +27193,34 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -27230,12 +27236,12 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27245,7 +27251,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27260,7 +27266,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -27270,45 +27276,43 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>3040977</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Dahli Marzipanstollen</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
-        </is>
-      </c>
-      <c r="D380" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
       <c r="E380" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Dahli</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27318,7 +27322,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27333,53 +27337,51 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Dahli Marzipanstollen - Online kein Bestand 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>3040977</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>4</v>
+      </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27389,7 +27391,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27399,56 +27401,54 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen - Online kein Bestand 2.70 Schweizer Franken</t>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
       <c r="E382" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27468,66 +27468,72 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N382" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>4.80/100g</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2.58/100g</t>
-        </is>
-      </c>
-      <c r="I383" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J383" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>100g</t>
@@ -27535,46 +27541,40 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
-        </is>
-      </c>
-      <c r="D384" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
       <c r="E384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -27613,49 +27613,51 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>3</v>
+      </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>3.07/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27665,7 +27667,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27675,56 +27677,56 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E386" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>3.07/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27734,7 +27736,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27744,56 +27746,60 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27803,7 +27809,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27813,60 +27819,56 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E388" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27876,7 +27878,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27886,56 +27888,60 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27945,7 +27951,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27955,60 +27961,56 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E390" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28018,7 +28020,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28028,56 +28030,60 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N390" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E391" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28087,7 +28093,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28097,60 +28103,54 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D392" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28170,35 +28170,35 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -28207,17 +28207,17 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28227,7 +28227,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28237,35 +28237,35 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
@@ -28274,17 +28274,17 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28294,7 +28294,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28309,49 +28309,51 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>82</v>
+      </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28361,7 +28363,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28371,56 +28373,56 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 30% ab 2 Aktion 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E396" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28430,7 +28432,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28440,56 +28442,56 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 30% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>3585078</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Naturaplan Bio Drei Königskuchen</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-drei-koenigskuchen/p/3585078</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E397" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28499,7 +28501,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -28509,39 +28511,39 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Drei Königskuchen 5.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>3585078</t>
+          <t>6022117</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Drei Königskuchen</t>
+          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-drei-koenigskuchen/p/3585078</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-dreikoenigskuchen-ohne-sultaninen/p/6022117</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E398" t="n">
         <v>2.5</v>
@@ -28583,82 +28585,13 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Drei Königskuchen 5.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen 5.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-28 06:49:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>6022117</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-dreikoenigskuchen-ohne-sultaninen/p/6022117</t>
-        </is>
-      </c>
-      <c r="D399" t="n">
-        <v>3</v>
-      </c>
-      <c r="E399" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>1.28/100g</t>
-        </is>
-      </c>
-      <c r="I399" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J399" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
-        </is>
-      </c>
-      <c r="M399" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen 5.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N399" t="inlineStr"/>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>2022-12-28 06:49:32</t>
+          <t>2022-12-28 12:55:15</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-12-28.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-28.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13586,7 +13586,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14083,13 +14083,13 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Prix Garantie Croissants 6 Stück 1.95 Schweizer Franken</t>
+          <t>Prix Garantie Croissants 6 Stück - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17351,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17629,7 +17629,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17698,7 +17698,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17767,7 +17767,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18406,7 +18406,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -18962,13 +18962,13 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St - Online kein Bestand 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19104,7 +19104,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19173,7 +19173,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19384,7 +19384,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19522,7 +19522,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23841,7 +23841,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24259,7 +24259,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24328,7 +24328,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24397,7 +24397,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24466,7 +24466,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24535,7 +24535,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24677,7 +24677,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24815,7 +24815,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25020,7 +25020,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25089,7 +25089,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25229,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25298,7 +25298,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25367,7 +25367,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25712,7 +25712,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26136,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26205,7 +26205,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26706,7 +26706,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26850,7 +26850,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26923,7 +26923,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -26992,7 +26992,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27063,7 +27063,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27203,7 +27203,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27343,7 +27343,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27412,7 +27412,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27552,7 +27552,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27619,7 +27619,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27688,7 +27688,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28045,7 +28045,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28181,7 +28181,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28248,7 +28248,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28315,7 +28315,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28384,7 +28384,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28453,7 +28453,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28522,7 +28522,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
@@ -28591,7 +28591,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-28 12:55:15</t>
+          <t>2022-12-28 20:49:41</t>
         </is>
       </c>
     </row>
